--- a/Team-Data/2013-14/2-25-2013-14.xlsx
+++ b/Team-Data/2013-14/2-25-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,19 +733,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.464</v>
+        <v>0.473</v>
       </c>
       <c r="H2" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I2" t="n">
         <v>37.7</v>
@@ -690,67 +757,67 @@
         <v>0.459</v>
       </c>
       <c r="L2" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M2" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O2" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P2" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R2" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T2" t="n">
         <v>40.7</v>
       </c>
       <c r="U2" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="V2" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB2" t="n">
         <v>101.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
         <v>18</v>
@@ -777,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
@@ -786,19 +853,19 @@
         <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
         <v>18</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU2" t="n">
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -974,16 +1041,16 @@
         <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV3" t="n">
         <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>13</v>
@@ -1159,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
@@ -1168,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -1290,25 +1357,25 @@
         <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1332,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS5" t="n">
         <v>7</v>
@@ -1353,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.536</v>
+        <v>0.527</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
@@ -1412,7 +1479,7 @@
         <v>34.4</v>
       </c>
       <c r="J6" t="n">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="K6" t="n">
         <v>0.427</v>
@@ -1421,22 +1488,22 @@
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N6" t="n">
         <v>0.341</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P6" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
         <v>32.9</v>
@@ -1448,10 +1515,10 @@
         <v>22.3</v>
       </c>
       <c r="V6" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>5.3</v>
@@ -1460,19 +1527,19 @@
         <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.8</v>
+        <v>92.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1508,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>10</v>
@@ -1517,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1526,13 +1593,13 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" t="n">
-        <v>0.379</v>
+        <v>0.386</v>
       </c>
       <c r="H7" t="n">
         <v>48.8</v>
@@ -1597,16 +1664,16 @@
         <v>85.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O7" t="n">
         <v>17.4</v>
@@ -1615,22 +1682,22 @@
         <v>23.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R7" t="n">
         <v>12.8</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V7" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W7" t="n">
         <v>7.2</v>
@@ -1642,7 +1709,7 @@
         <v>5.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA7" t="n">
         <v>20.1</v>
@@ -1654,7 +1721,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1681,13 +1748,13 @@
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
@@ -1696,7 +1763,7 @@
         <v>22</v>
       </c>
       <c r="AR7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS7" t="n">
         <v>16</v>
@@ -1705,19 +1772,19 @@
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
@@ -1872,7 +1939,7 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1902,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA8" t="n">
         <v>22</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>0.446</v>
+        <v>0.455</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,19 +2025,19 @@
         <v>37.8</v>
       </c>
       <c r="J9" t="n">
-        <v>85.3</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M9" t="n">
         <v>23.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O9" t="n">
         <v>18.6</v>
@@ -1979,16 +2046,16 @@
         <v>25.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T9" t="n">
-        <v>45.6</v>
+        <v>45.2</v>
       </c>
       <c r="U9" t="n">
         <v>21.8</v>
@@ -2003,7 +2070,7 @@
         <v>5.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z9" t="n">
         <v>22.8</v>
@@ -2012,19 +2079,19 @@
         <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
@@ -2036,10 +2103,10 @@
         <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>9</v>
@@ -2063,10 +2130,10 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
         <v>13</v>
@@ -2075,13 +2142,13 @@
         <v>24</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>29</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2227,7 +2294,7 @@
         <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
@@ -2251,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2266,10 +2333,10 @@
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>9</v>
@@ -2436,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2553,52 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J12" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.475</v>
+        <v>0.473</v>
       </c>
       <c r="L12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M12" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="P12" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.697</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T12" t="n">
         <v>45.3</v>
@@ -2540,10 +2607,10 @@
         <v>20.7</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>5.8</v>
@@ -2552,22 +2619,22 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA12" t="n">
         <v>24.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.5</v>
+        <v>106.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
         <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2585,16 +2652,16 @@
         <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2609,13 +2676,13 @@
         <v>16</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,13 +2691,13 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" t="n">
         <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.768</v>
+        <v>0.764</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K13" t="n">
         <v>0.453</v>
@@ -2695,7 +2762,7 @@
         <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N13" t="n">
         <v>0.352</v>
@@ -2707,31 +2774,31 @@
         <v>23.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R13" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="T13" t="n">
-        <v>45.7</v>
+        <v>45.4</v>
       </c>
       <c r="U13" t="n">
         <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z13" t="n">
         <v>20.2</v>
@@ -2740,16 +2807,16 @@
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
@@ -2764,7 +2831,7 @@
         <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2779,7 +2846,7 @@
         <v>19</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2788,31 +2855,31 @@
         <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>12</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>13</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -2952,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -2970,7 +3037,7 @@
         <v>24</v>
       </c>
       <c r="AR14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS14" t="n">
         <v>13</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -3032,34 +3099,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
         <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.445</v>
       </c>
       <c r="L15" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
         <v>0.373</v>
@@ -3068,10 +3135,10 @@
         <v>16.8</v>
       </c>
       <c r="P15" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
         <v>9.4</v>
@@ -3092,13 +3159,13 @@
         <v>6.8</v>
       </c>
       <c r="X15" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA15" t="n">
         <v>19.2</v>
@@ -3107,10 +3174,10 @@
         <v>100.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.6</v>
+        <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3131,10 +3198,10 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
@@ -3149,10 +3216,10 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS15" t="n">
         <v>11</v>
@@ -3167,13 +3234,13 @@
         <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX15" t="n">
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
         <v>10</v>
@@ -3185,7 +3252,7 @@
         <v>15</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
         <v>11</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3352,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3367,7 +3434,7 @@
         <v>28</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3571,7 @@
         <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
         <v>13</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3695,7 +3762,7 @@
         <v>27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
         <v>11</v>
@@ -3713,10 +3780,10 @@
         <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
         <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.491</v>
+        <v>0.482</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3787,19 +3854,19 @@
         <v>7.6</v>
       </c>
       <c r="M19" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O19" t="n">
         <v>21.1</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.775</v>
+        <v>0.778</v>
       </c>
       <c r="R19" t="n">
         <v>12.8</v>
@@ -3808,16 +3875,16 @@
         <v>32.9</v>
       </c>
       <c r="T19" t="n">
-        <v>45.6</v>
+        <v>45.8</v>
       </c>
       <c r="U19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V19" t="n">
         <v>13.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>3.6</v>
@@ -3826,19 +3893,19 @@
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3850,13 +3917,13 @@
         <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>10</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3877,16 +3944,16 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS19" t="n">
         <v>8</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AT19" t="n">
         <v>3</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>4</v>
       </c>
       <c r="AU19" t="n">
         <v>7</v>
@@ -3895,16 +3962,16 @@
         <v>7</v>
       </c>
       <c r="AW19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4053,7 +4120,7 @@
         <v>2</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
         <v>23</v>
@@ -4229,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="AM21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN21" t="n">
         <v>9</v>
@@ -4250,16 +4317,16 @@
         <v>28</v>
       </c>
       <c r="AT21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>19</v>
@@ -4277,7 +4344,7 @@
         <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,16 +4463,16 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
         <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL22" t="n">
         <v>17</v>
@@ -4420,7 +4487,7 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4447,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -4488,52 +4555,52 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="n">
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>0.288</v>
+        <v>0.293</v>
       </c>
       <c r="H23" t="n">
         <v>48.8</v>
       </c>
       <c r="I23" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O23" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P23" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R23" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
         <v>42.1</v>
@@ -4554,19 +4621,19 @@
         <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4584,7 +4651,7 @@
         <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4593,7 +4660,7 @@
         <v>19</v>
       </c>
       <c r="AM23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN23" t="n">
         <v>20</v>
@@ -4602,13 +4669,13 @@
         <v>23</v>
       </c>
       <c r="AP23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
         <v>13</v>
       </c>
       <c r="AR23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>12</v>
@@ -4617,19 +4684,19 @@
         <v>23</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
@@ -4641,7 +4708,7 @@
         <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-10.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
       </c>
       <c r="AF24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>14</v>
@@ -4808,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="AX24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -4852,64 +4919,64 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
         <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>0.589</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>84.5</v>
+        <v>84.3</v>
       </c>
       <c r="K25" t="n">
         <v>0.458</v>
       </c>
       <c r="L25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O25" t="n">
         <v>18.4</v>
       </c>
       <c r="P25" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q25" t="n">
         <v>0.76</v>
       </c>
       <c r="R25" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S25" t="n">
         <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U25" t="n">
         <v>19.1</v>
       </c>
       <c r="V25" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
@@ -4918,25 +4985,25 @@
         <v>4.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
         <v>21.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
@@ -4948,25 +5015,25 @@
         <v>8</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
@@ -4990,7 +5057,7 @@
         <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
@@ -5005,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -5034,70 +5101,70 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="n">
         <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.5</v>
+        <v>39.8</v>
       </c>
       <c r="J26" t="n">
-        <v>87.8</v>
+        <v>88</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
         <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="N26" t="n">
         <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="P26" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="n">
         <v>0.822</v>
       </c>
       <c r="R26" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S26" t="n">
         <v>33.4</v>
       </c>
       <c r="T26" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U26" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V26" t="n">
         <v>13.7</v>
       </c>
       <c r="W26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
         <v>19.3</v>
@@ -5106,16 +5173,16 @@
         <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="AC26" t="n">
         <v>4.2</v>
       </c>
       <c r="AD26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE26" t="n">
         <v>6</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5124,31 +5191,31 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL26" t="n">
         <v>3</v>
       </c>
-      <c r="AK26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>2</v>
-      </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5172,16 +5239,16 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
       </c>
       <c r="F27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>0.351</v>
+        <v>0.357</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,10 +5301,10 @@
         <v>37.1</v>
       </c>
       <c r="J27" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
         <v>6.6</v>
@@ -5246,37 +5313,37 @@
         <v>19.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P27" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R27" t="n">
         <v>11.9</v>
       </c>
       <c r="S27" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
         <v>19.3</v>
       </c>
       <c r="V27" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W27" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
         <v>5.6</v>
@@ -5291,19 +5358,19 @@
         <v>101.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.4</v>
+        <v>-1.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>11</v>
@@ -5318,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM27" t="n">
         <v>24</v>
@@ -5333,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>9</v>
@@ -5351,13 +5418,13 @@
         <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5503,7 +5570,7 @@
         <v>14</v>
       </c>
       <c r="AM28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5515,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5533,16 +5600,16 @@
         <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
         <v>18</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA28" t="n">
         <v>24</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" t="n">
         <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5607,10 +5674,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O29" t="n">
         <v>18.9</v>
@@ -5622,16 +5689,16 @@
         <v>0.775</v>
       </c>
       <c r="R29" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S29" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V29" t="n">
         <v>14.1</v>
@@ -5643,7 +5710,7 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z29" t="n">
         <v>22.7</v>
@@ -5655,10 +5722,10 @@
         <v>99.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5676,13 +5743,13 @@
         <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5691,7 +5758,7 @@
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP29" t="n">
         <v>9</v>
@@ -5706,7 +5773,7 @@
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU29" t="n">
         <v>18</v>
@@ -5715,13 +5782,13 @@
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
@@ -5733,7 +5800,7 @@
         <v>17</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-5.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
       </c>
       <c r="AF30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
         <v>24</v>
@@ -5858,7 +5925,7 @@
         <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK30" t="n">
         <v>22</v>
@@ -5879,7 +5946,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>18</v>
@@ -5897,7 +5964,7 @@
         <v>13</v>
       </c>
       <c r="AW30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
@@ -5944,85 +6011,85 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.509</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
       </c>
       <c r="I31" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J31" t="n">
         <v>84.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L31" t="n">
         <v>7.8</v>
       </c>
       <c r="M31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P31" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S31" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T31" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U31" t="n">
         <v>23.2</v>
       </c>
       <c r="V31" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W31" t="n">
         <v>8.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
         <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6040,19 +6107,19 @@
         <v>12</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
         <v>28</v>
@@ -6070,7 +6137,7 @@
         <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6082,22 +6149,22 @@
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-25-2013-14</t>
+          <t>2014-02-25</t>
         </is>
       </c>
     </row>
